--- a/data/trans_camb/P42_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P42_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-15,33</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-18,21</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-19,27</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-14,27</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-22,4</t>
+          <t>-3,52</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-24,68</t>
+          <t>-4,47</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-15,07</t>
+          <t>-4,69</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-20,14</t>
+          <t>-5,76</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-21,65</t>
+          <t>-2,53</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-3,15</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-3,63</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-4,52</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-29,68; -3,28</t>
+          <t>-6,37; 2,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-30,99; -7,79</t>
+          <t>-6,62; 1,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-32,4; -10,01</t>
+          <t>-7,67; 0,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,26; 4,92</t>
+          <t>-8,86; -0,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-36,76; -8,23</t>
+          <t>-9,09; 0,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,55; -12,21</t>
+          <t>-10,09; -0,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,85; -4,13</t>
+          <t>-10,05; -1,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-29,17; -11,62</t>
+          <t>-11,31; -2,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-30,16; -13,12</t>
+          <t>-6,17; 0,19</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-6,72; -0,64</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,56; -1,3</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-7,94; -2,26</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-72,29%</t>
+          <t>-45,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-85,83%</t>
+          <t>-52,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-90,86%</t>
+          <t>-78,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-47,64%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-74,78%</t>
+          <t>-61,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-82,39%</t>
+          <t>-77,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-60,25%</t>
+          <t>-81,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-80,55%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-86,58%</t>
+          <t>-56,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-69,65%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-80,4%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-93,29; -2,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-98,07; -50,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -52,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-82,55; 29,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-91,1; -32,11</t>
+          <t>-90,59; 96,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-94,22; -54,66</t>
+          <t>-95,18; 13,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-80,86; -18,77</t>
+          <t>-95,57; -23,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-91,56; -59,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-95,21; -71,14</t>
+          <t>-87,33; 19,72</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-91,13; -16,55</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-93,21; -39,02</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,9</t>
+          <t>-6,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-14,78</t>
+          <t>-7,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-14,98</t>
+          <t>-7,99</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-16,32</t>
+          <t>-9,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-24,86</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-23,76</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-10,46</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-18,61</t>
+          <t>-6,62</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-18,32</t>
+          <t>-4,61</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-6,36</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-6,26</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-8,08</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 1,97</t>
+          <t>-12,06; -1,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,35; -10,39</t>
+          <t>-13,52; -4,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,6; -10,54</t>
+          <t>-13,78; -4,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,85; -9,3</t>
+          <t>-15,52; -5,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-31,29; -19,25</t>
+          <t>-6,78; -0,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,83; -17,63</t>
+          <t>-8,35; -2,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,96; -3,58</t>
+          <t>-7,9; -2,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,61; -14,89</t>
+          <t>-9,9; -4,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-22,28; -14,21</t>
+          <t>-8,18; -1,94</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-9,82; -4,05</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-9,17; -3,81</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-11,08; -5,9</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-37,69%</t>
+          <t>-62,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-80,72%</t>
+          <t>-81,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-81,82%</t>
+          <t>-82,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-56,58%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-86,19%</t>
+          <t>-49,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-82,38%</t>
+          <t>-75,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-46,87%</t>
+          <t>-70,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-83,39%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-82,09%</t>
+          <t>-57,11%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-78,76%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-77,5%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-63,75; 21,78</t>
+          <t>-82,23; -13,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-90,1; -64,06</t>
+          <t>-92,79; -53,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-91,33; -60,17</t>
+          <t>-92,93; -58,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-71,67; -35,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-92,08; -75,69</t>
+          <t>-76,12; -3,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-90,31; -69,3</t>
+          <t>-88,39; -37,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-61,7; -15,54</t>
+          <t>-85,23; -40,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-89,26; -75,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-88,7; -71,45</t>
+          <t>-75,88; -29,04</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-88,47; -61,37</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-86,14; -60,72</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-9,16</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-13,71</t>
+          <t>-4,94</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-14,01</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,84</t>
+          <t>-6,22</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-9,8</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,69</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-7,57</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-11,79</t>
+          <t>-7,32</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-11,88</t>
+          <t>-3,93</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-5,03</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-5,12</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-6,82</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,73; -2,76</t>
+          <t>-7,72; -0,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,18; -8,7</t>
+          <t>-9,47; -2,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,97; -9,39</t>
+          <t>-9,5; -2,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,2; -0,59</t>
+          <t>-10,52; -3,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,8; -5,81</t>
+          <t>-8,25; 0,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,6; -5,54</t>
+          <t>-9,54; -1,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,42; -3,22</t>
+          <t>-9,47; -1,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,06; -8,6</t>
+          <t>-11,68; -4,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-16,63; -8,7</t>
+          <t>-7,03; -1,2</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-7,79; -2,42</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-7,95; -2,67</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-9,69; -4,56</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-58,86%</t>
+          <t>-61,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-88,07%</t>
+          <t>-79,39%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-90,02%</t>
+          <t>-81,26%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-44,51%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-74,71%</t>
+          <t>-53,03%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-73,9%</t>
+          <t>-67,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-52,59%</t>
+          <t>-67,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-81,9%</t>
+          <t>-97,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-82,57%</t>
+          <t>-56,69%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-72,54%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-73,83%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-98,31%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-81,48; -12,84</t>
+          <t>-87,06; 7,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-96,2; -72,72</t>
+          <t>-94,49; -38,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-96,82; -78,74</t>
+          <t>-93,81; -49,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-69,3; -1,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-87,66; -53,83</t>
+          <t>-79,13; 21,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-85,87; -51,86</t>
+          <t>-85,5; -30,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-71,84; -23,85</t>
+          <t>-85,19; -30,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-90,01; -70,49</t>
+          <t>-100,0; -79,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-89,79; -71,86</t>
+          <t>-78,04; -19,21</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-86,05; -47,7</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-85,33; -52,62</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -87,66</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-8,63</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-14,66</t>
+          <t>-8,24</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-15,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-11,29</t>
+          <t>-9,78</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-17,53</t>
+          <t>-3,53</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-17,35</t>
+          <t>-7,1</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-9,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-15,86</t>
+          <t>-8,32</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-16,0</t>
+          <t>-3,58</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-7,67</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-9,06</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,94; -2,85</t>
+          <t>-7,67; 1,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-18,34; -11,37</t>
+          <t>-11,82; -5,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,87; -11,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,8; -6,54</t>
+          <t>-13,56; -7,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-21,5; -14,06</t>
+          <t>-5,86; -0,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,01; -13,63</t>
+          <t>-9,45; -4,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-12,87; -5,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-18,75; -13,31</t>
+          <t>-10,24; -6,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-18,65; -13,32</t>
+          <t>-5,82; -0,84</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-9,95; -5,87</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-10,99; -7,52</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-49,31%</t>
+          <t>-36,35%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-83,78%</t>
+          <t>-82,35%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-86,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-52,26%</t>
+          <t>-97,68%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-81,18%</t>
+          <t>-40,92%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-80,36%</t>
+          <t>-82,3%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-50,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-82,43%</t>
+          <t>-96,49%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-83,14%</t>
+          <t>-38,37%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-82,26%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-97,15%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-66,15; -14,28</t>
+          <t>-64,66; 20,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-90,01; -73,94</t>
+          <t>-93,85; -58,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-91,76; -75,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-65,78; -33,67</t>
+          <t>-100,0; -88,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-87,47; -73,02</t>
+          <t>-60,72; -6,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-86,37; -71,04</t>
+          <t>-94,02; -56,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-61,81; -31,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-87,28; -76,5</t>
+          <t>-100,0; -78,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-87,53; -76,75</t>
+          <t>-56,44; -9,06</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-91,64; -66,84</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -90,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-4,65</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-7,38</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-7,68</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-8,92</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-3,92</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-6,09</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-5,98</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-7,72</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-4,28</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-6,72</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-6,81</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-8,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-6,87; -1,99</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-9,49; -5,53</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-9,82; -5,89</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-11,03; -7,19</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-5,78; -2,09</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-7,68; -4,6</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-7,54; -4,57</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-9,2; -6,41</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,79; -2,82</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-8,11; -5,53</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-8,22; -5,71</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-9,6; -7,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-51,69%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-82,09%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-85,45%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-99,18%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-49,93%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-77,46%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-76,05%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-98,23%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-50,85%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-79,88%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-80,98%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-98,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-67,56; -24,03</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-89,05; -71,98</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-91,37; -75,46</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -95,66</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-64,3; -28,95</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-85,49; -66,88</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-84,1; -65,37</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -93,44</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-63,05; -36,43</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-85,47; -72,67</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-86,47; -73,99</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-99,66; -96,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
